--- a/medicine/Mort/Décès_en_1972/Décès_en_1972.xlsx
+++ b/medicine/Mort/Décès_en_1972/Décès_en_1972.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1972</t>
+          <t>Décès_en_1972</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1972</t>
+          <t>Décès_en_1972</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Jacques Chapiro, peintre français d'origine russe (° 13 juin 1887).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacques Chapiro, peintre français d'origine russe (° 13 juin 1887).
 Eugène Camille Fitsch, peintre, décorateur de théâtre, aquafortiste, lithographe et enseignant  américain d'origine française (° 11 décembre 1892).
 Eugène Delécluse, peintre, illustrateur et aquafortiste français (° 5 août 1882).
 Edgar Augustus Jerome Johnson, économiste américain (° 1900).
@@ -539,9 +556,43 @@
 Gladys Mackenzie, physicienne écossaise (° 2 mai 1903).
 Ernie Mills, coureur cycliste britannique (° 10 avril 1913).
 José Rodríguez Vázquez, footballeur espagnol (° 1889).
-Ellis Wallin, peintre suédois (° 10 décembre 1888).
-Janvier
-1er janvier :
+Ellis Wallin, peintre suédois (° 10 décembre 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Maurice Chevalier, acteur et chanteur français (° 12 septembre 1888).
 Pietro Linari, coureur cycliste italien (° 15 octobre 1896).
 3 janvier : Frans Masereel, graveur et peintre belge (° 30 juillet 1889).
@@ -563,9 +614,43 @@
 27 janvier : Herbert Hübner, acteur allemand (° 6 février 1889).
 28 janvier : Dino Buzzati, écrivain et peintre italien, journaliste au Corriere della Sera, dessinateur, nouvelliste, poète et dramaturge (°16 octobre 1906).
 29 janvier : Hugh McDermott, acteur écossais (° 20 mars 1906).
-30 janvier : Sisowath Vatchayavong, homme politique cambodgien (° 13 septembre 1891).
-Février
-2 février : Natalie Clifford Barney, femme de lettres américaine (° 31 octobre 1875).
+30 janvier : Sisowath Vatchayavong, homme politique cambodgien (° 13 septembre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Natalie Clifford Barney, femme de lettres américaine (° 31 octobre 1875).
 3 février : Jacques Le Cann, écrivain français (° 31 janvier 1886).
 5 février : Yvonne Thivet, peintre française (° 4 février 1888).
 8 février : Markos Vamvakaris, compositeur, musicien et chanteur grec (° 10 mai 1905).
@@ -583,9 +668,43 @@
 Pierre Overney, militant maoïste (° 1948).
 Gottfried Fuchs, footballeur international allemand (° 3 mai 1889).
 27 février : Rolf Hirschland, peintre et dessinateur français d'origine allemande (° 16 février 1907).
-28 février : Ayodhya Prasad, syndicaliste et homme politique fidjien (° 30 avril 1909).
-Mars
-1er mars : Antonio Viscardi, philologue italien (° 30 juillet 1900).
+28 février : Ayodhya Prasad, syndicaliste et homme politique fidjien (° 30 avril 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Antonio Viscardi, philologue italien (° 30 juillet 1900).
 2 mars :
 Walter Byron, acteur britannique (° 11 juin 1899).
 Kiyokata Kaburagi, peintre japonais (° 31 août 1878).
@@ -604,9 +723,43 @@
 Ricco Wassmer, peintre suisse (° 13 octobre 1915).
 29 mars : Antonio Bevilacqua, coureur cycliste italien (° 22 octobre 1918).
 30 mars : Raymond Decorte, coureur cycliste belge (° 17 mars 1898).
-31 mars : Ramon Iglesias y Navarri, évêque d'Urgell et Coprince d'Andorre (° 28 janvier 1889).
-Avril
-4 avril :
+31 mars : Ramon Iglesias y Navarri, évêque d'Urgell et Coprince d'Andorre (° 28 janvier 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril :
 Adam Clayton Powell Jr., homme politique américain (° 29 novembre 1908).
 Stefan Wolpe, compositeur d'origine allemande (° 25 août 1902).
 8 avril : Raphaël Drouart, graveur, peintre et illustrateur français (° 25 décembre 1884).
@@ -620,9 +773,43 @@
 24 avril : Pierre Lazareff, journaliste et patron de presse français (° 16 avril 1907).
 26 avril : François Le Bihan, coureur cycliste français (° 16 avril 1935).
 27 avril : Kwame Nkrumah, homme politique ghanéen (° 21 septembre 1909).
-29 avril : Juti Ravenna, peintre italien (° 26 décembre 1897).
-Mai
-2 mai : John Edgar Hoover, directeur du FBI (° 1er janvier 1895).
+29 avril : Juti Ravenna, peintre italien (° 26 décembre 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : John Edgar Hoover, directeur du FBI (° 1er janvier 1895).
 5 mai : Jane Anderson, propagandiste américaine pour le Troisième Reich (° 6 janvier 1888).
 10 mai : Francisco Bores, peintre espagnol (° 6 mai 1898).
 11 mai : Lee Beom-seok, homme d'État sud-coréen (° 20 octobre 1900).
@@ -635,9 +822,43 @@
 Pedro Luis Boitel, poète et dissident cubain (° 1931).
 Eizō Katō, peintre japonais du style nihonga (° 20 août 1906)
 28 mai : Duc de Windsor ex roi du Royaume-Uni : Édouard VIII (° 23 juin 1894).
-29 mai : Lucian Bernhard, graphiste, affichiste, créateur de caractères, architecte d’intérieur et professeur allemand (° 15 mai 1883).
-Juin
-5 juin : Louis Mottiat, coureur cycliste belge (° 6 juillet 1889).
+29 mai : Lucian Bernhard, graphiste, affichiste, créateur de caractères, architecte d’intérieur et professeur allemand (° 15 mai 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 juin : Louis Mottiat, coureur cycliste belge (° 6 juillet 1889).
 6 juin : Pierre-Louis Cadre, peintre français (° 24 mars 1884).
 14 juin : Dett, peintre animalière française (° 8 janvier 1885).
 18 juin : Léa Lafugie, exploratrice et peintre française (° 11 février 1890).
@@ -645,9 +866,43 @@
 25 juin : Élisabeth Branly-Tournon, peintre française (° 19 novembre 1889).
 26 juin : Gabriel Pomerand, poète et peintre lettriste français (° 13 juin 1926).
 29 juin : Boby Lapointe, chanteur français (° 16 avril 1922).
-30 juin : Francisco de Madina, prêtre conventuel et compositeur espagnol (° 29 janvier 1907).
-Juillet
-2 juillet : Louis Latapie, peintre et graveur français (° 11 juillet 1891).
+30 juin : Francisco de Madina, prêtre conventuel et compositeur espagnol (° 29 janvier 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Louis Latapie, peintre et graveur français (° 11 juillet 1891).
 3 juillet : Vittorio Mascheroni, compositeur italien (° 3 mars 1895).
 6 juillet : Brandon de Wilde, acteur américain (° 9 avril 1942).
 7 juillet : Hélène Clément-Benois, peintre et décoratrice russe (° 31 mars 1898).
@@ -661,9 +916,43 @@
 27 juillet : Richard Coudenhove-Kalergi, homme politique, essayiste, historien et philosophe d'origine austro-hongroise par son père et japonaise par sa mère (° 16 novembre 1894).
 31 juillet :
 Mikhaïl Artamonov, historien et archéologue russe (° 23 novembre 1898).
-Paul-Henri Spaak, homme politique belge (° 25 janvier 1899).
-Août
-2 août : Vadim Borissovski, altiste russe puis soviétique (° 19 janvier 1900).
+Paul-Henri Spaak, homme politique belge (° 25 janvier 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Vadim Borissovski, altiste russe puis soviétique (° 19 janvier 1900).
 5 août : Mezz Mezzrow, clarinettiste et saxophoniste de jazz américain (° 9 novembre 1899).
 9 août : Hector Martin, coureur cycliste belge (° 26 décembre 1898).
 14 août :
@@ -671,9 +960,43 @@
 Jules Romains, écrivain français (° 26 août 1885).
 19 août : James Patterson, acteur américain (° 29 juin 1932).
 27 août : Angelo Dell'Acqua, cardinal italien (° 9 décembre 1903).
-28 août : René Leibowitz, compositeur, théoricien et chef d'orchestre (° 17 février 1913).
-Septembre
-1er septembre :
+28 août : René Leibowitz, compositeur, théoricien et chef d'orchestre (° 17 février 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 He Xiangning, femme politique, peintre et poète chinoise (° 27 juin 1878).
 Hans Zesch-Ballot, acteur allemand (° 20 mai 1872).
 4 septembre : René Le Forestier, peintre français (° 17 janvier 1903).
@@ -697,9 +1020,43 @@
 28 septembre : Maurice Thiriet, compositeur français (° 2 mai 1906).
 29 septembre :
 Albert Braïtou-Sala, peintre français (° 16 février 1885).
-Edward Sloman, réalisateur, acteur, scénariste et producteur britannique (° 19 juillet 1886).
-Octobre
-8 octobre : Julien Maitron, coureur cycliste français (° 20 février 1881).
+Edward Sloman, réalisateur, acteur, scénariste et producteur britannique (° 19 juillet 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8 octobre : Julien Maitron, coureur cycliste français (° 20 février 1881).
 9 octobre : Giuseppe Capogrossi, graphiste et peintre italien  (° 7 mars 1900).
 10 octobre : Kenneth Edgeworth, ingénieur et astronome irlandais (° 26 février 1880).
 16 octobre : Frédéric Dupré, architecte, décorateur et peintre français (° 12 novembre 1881).
@@ -708,9 +1065,43 @@
 20 octobre : Harlow Shapley, astrophysicien américain (° 2 novembre 1885).
 27 octobre : Katherine Oppenheimer, biologiste et botaniste germano-étatsunienne (° 8 août 1910).
 28 octobre : Alejandro Rodríguez Apolinario, footballeur espagnol (° 1er octobre 1892).
-29 octobre : Fredric Brown, écrivain américain (° 29 octobre 1906).
-Novembre
-1er novembre :
+29 octobre : Fredric Brown, écrivain américain (° 29 octobre 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Georges Bohy, homme politique belge (° 1er novembre 1897).
 Mladen Josić, peintre serbe puis yougoslave (° 15 juillet 1897).
 Ezra Pound, poète américain (° 30 octobre 1885).
@@ -729,9 +1120,43 @@
 23 novembre : Bernard Nedell, acteur américain (° 14 octobre 1893).
 28 novembre :
 Havergal Brian, compositeur et critique musical britannique (° 29 janvier 1876).
-Henri Sausin, coureur cycliste français (° 12 octobre 1909).
-Décembre
-2 décembre : Émile Denegri, footballeur français (° 10 janvier 1910).
+Henri Sausin, coureur cycliste français (° 12 octobre 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Émile Denegri, footballeur français (° 10 janvier 1910).
 3 décembre : Rudolf Perak, compositeur autrichien (° 29 mars 1891).
 4 décembre : Paul Jean Hugues, peintre français (° 6 mars 1891).
 7 décembre :
@@ -746,9 +1171,43 @@
 26 décembre : Harry S. Truman, président des États-Unis (° 8 mai 1884).
 27 décembre : Lester B. Pearson, diplomate et homme d'État canadien, prix nobel de la paix en 1957 (° 23 avril 1897).
 29 décembre : Armand Boutrolle, sculpteur, français (° 28 février 1886).
-30 décembre : Laurent Mbariko, homme politique congolais (° 19 janvier 1925).
-Date inconnue
-Pierre Langlade, peintre français (° février 1907).</t>
+30 décembre : Laurent Mbariko, homme politique congolais (° 19 janvier 1925).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1972</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1972</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pierre Langlade, peintre français (° février 1907).</t>
         </is>
       </c>
     </row>
